--- a/data/network_1.xlsx
+++ b/data/network_1.xlsx
@@ -18,6 +18,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>is_zone</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
     <t>pop</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
@@ -81,7 +81,7 @@
     <t>intra</t>
   </si>
   <si>
-    <t>id_lt</t>
+    <t>type</t>
   </si>
   <si>
     <t>l</t>
@@ -480,23 +480,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="b">
@@ -513,7 +513,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="b">
@@ -530,7 +530,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="b">
@@ -547,7 +547,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="b">
@@ -564,7 +564,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="b">
@@ -576,12 +576,9 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="b">
@@ -593,12 +590,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="b">
@@ -610,12 +604,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="b">
@@ -626,9 +617,6 @@
       </c>
       <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -665,7 +653,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -685,7 +673,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -705,7 +693,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -739,13 +727,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -761,7 +749,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -784,7 +772,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -807,7 +795,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -830,7 +818,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -850,7 +838,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -870,7 +858,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -890,7 +878,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
